--- a/biology/Botanique/Betulaceae/Betulaceae.xlsx
+++ b/biology/Botanique/Betulaceae/Betulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Betulaceae (Bétulacées) regroupe des plantes dicotylédones comprenant 157 espèces réparties en 6 genres.
 Ce sont des arbres ou des arbustes répartis dans l'hémisphère Nord dans les régions tempérées et jusqu'aux régions froides.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Betula qui est le nom latin des bouleaux, d'origine  gauloise, le mot celtique betul ayant la même signification[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Betula qui est le nom latin des bouleaux, d'origine  gauloise, le mot celtique betul ayant la même signification.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Classification de Cronquist cette famille fait déjà partie de l'ordre des Fagales, mais, la classification phylogénétique APG III (2009)[2] ayant invalidé les familles des Carpinaceae et des Corylaceae, en a incorporé les espèces dans les Betulaceae, sous-famille Coryloïdeae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Classification de Cronquist cette famille fait déjà partie de l'ordre des Fagales, mais, la classification phylogénétique APG III (2009) ayant invalidé les familles des Carpinaceae et des Corylaceae, en a incorporé les espèces dans les Betulaceae, sous-famille Coryloïdeae.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs de cette famille sont caractéristiques. Ce sont des chatons unisexués.
 </t>
@@ -605,19 +623,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 déc. 2015)[3], Catalogue of Life                                   (11 déc. 2015)[4], Angiosperm Phylogeny Website                        (11 déc. 2015)[5] et NCBI  (11 déc. 2015)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (11 déc. 2015), Catalogue of Life                                   (11 déc. 2015), Angiosperm Phylogeny Website                        (11 déc. 2015) et NCBI  (11 déc. 2015) :
 Alnus Mill. (1754) – les aulnes
 Betula L. (1753) – les bouleaux
 Carpinus L. (1753) – les charmes
 Corylus L. (1753) – les noisetiers
 Ostrya Scop. (1760) – les ostryers (dont le charme-houblon)
 Ostryopsis Decne. (1873)
-Selon DELTA Angio           (11 déc. 2015)[7] :
+Selon DELTA Angio           (11 déc. 2015) :
 Alnus
 Betula
-Selon ITIS      (11 déc. 2015)[8] :
+Selon ITIS      (11 déc. 2015) :
 Alnus P. Mill.
 Betula L.
 Carpinus L.
